--- a/medicine/Maladies infectieuses/Épidémie_de_maladie_à_virus_Ebola_au_Kivu/Épidémie_de_maladie_à_virus_Ebola_au_Kivu.xlsx
+++ b/medicine/Maladies infectieuses/Épidémie_de_maladie_à_virus_Ebola_au_Kivu/Épidémie_de_maladie_à_virus_Ebola_au_Kivu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9mie_de_maladie_%C3%A0_virus_Ebola_au_Kivu</t>
+          <t>Épidémie_de_maladie_à_virus_Ebola_au_Kivu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’épidémie de maladie à virus Ebola au Kivu dure d'août 2018 à juin 2020 et cause la mort de 2 280 personnes. Elle débute dans la province congolaise du Nord-Kivu avant de s'étendre à celle de l'Ituri[4],[5],[6]. La lutte contre l'épidémie est compliquée par la guerre du Kivu qui sévit depuis 2004[7].
-En juillet 2019, un cas est détecté dans la ville de Goma, métropole d'un million d'habitants, et le patient meurt lors de son transfert à Butembo[8]. Le 17 juillet 2019, l'Organisation mondiale de la santé (OMS) déclare l'épidémie « urgence de santé publique de portée internationale[9] ».
-Au cours de cette épidémie, le professeur Jean-Jacques Muyembe et ses équipes ont mis au point un vaccin pour limiter la propagation du virus, et ont identifié deux molécules permettant de traiter la maladie[10].
-Le 25 juin 2020, l'OMS annonce que l'épidémie est terminée[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’épidémie de maladie à virus Ebola au Kivu dure d'août 2018 à juin 2020 et cause la mort de 2 280 personnes. Elle débute dans la province congolaise du Nord-Kivu avant de s'étendre à celle de l'Ituri. La lutte contre l'épidémie est compliquée par la guerre du Kivu qui sévit depuis 2004.
+En juillet 2019, un cas est détecté dans la ville de Goma, métropole d'un million d'habitants, et le patient meurt lors de son transfert à Butembo. Le 17 juillet 2019, l'Organisation mondiale de la santé (OMS) déclare l'épidémie « urgence de santé publique de portée internationale ».
+Au cours de cette épidémie, le professeur Jean-Jacques Muyembe et ses équipes ont mis au point un vaccin pour limiter la propagation du virus, et ont identifié deux molécules permettant de traiter la maladie.
+Le 25 juin 2020, l'OMS annonce que l'épidémie est terminée.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9mie_de_maladie_%C3%A0_virus_Ebola_au_Kivu</t>
+          <t>Épidémie_de_maladie_à_virus_Ebola_au_Kivu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,12 @@
           <t>Graphique d'épidémie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'épidémie de la RDC est du type de virus Ebolavirus Zaïre, avec un taux de mortalité de 60%-90 %[11]. Le virus Ebola fait partie de la famille des filoviridae[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épidémie de la RDC est du type de virus Ebolavirus Zaïre, avec un taux de mortalité de 60%-90 %. Le virus Ebola fait partie de la famille des filoviridae.
 Le graphique ci-dessous montre l'épidémie au cours de l'année écoulée, le graphique indique des cas en République démocratique du Congo et en Ouganda :
-Chiffres hebdomadaires
-Dans le tableau ci-dessous, les cas probables comprennent tous les décès signalés pour lesquels il n'a pas été possible d'obtenir des échantillons biologiques aux fins de confirmation en laboratoire, par le ministère de la Santé de la RDC et l'Organisation mondiale de la santé :
 </t>
         </is>
       </c>
@@ -530,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pid%C3%A9mie_de_maladie_%C3%A0_virus_Ebola_au_Kivu</t>
+          <t>Épidémie_de_maladie_à_virus_Ebola_au_Kivu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Graphique d'épidémie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Chiffres hebdomadaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le tableau ci-dessous, les cas probables comprennent tous les décès signalés pour lesquels il n'a pas été possible d'obtenir des échantillons biologiques aux fins de confirmation en laboratoire, par le ministère de la Santé de la RDC et l'Organisation mondiale de la santé :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épidémie_de_maladie_à_virus_Ebola_au_Kivu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Maladies infectieuses/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89pid%C3%A9mie_de_maladie_%C3%A0_virus_Ebola_au_Kivu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le chef de l'Organisation mondiale de la santé (OMS) a indiqué le 15 août 2018 que l'épidémie actuelle en République démocratique du Congo (RDC) pourrait être pire que l'épidémie d'Afrique de l'Ouest en raison de plusieurs facteurs[128],[129]. Le tableau statistique ci-dessous indique les 10 épidémies survenues depuis 1976 :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le chef de l'Organisation mondiale de la santé (OMS) a indiqué le 15 août 2018 que l'épidémie actuelle en République démocratique du Congo (RDC) pourrait être pire que l'épidémie d'Afrique de l'Ouest en raison de plusieurs facteurs,. Le tableau statistique ci-dessous indique les 10 épidémies survenues depuis 1976 :
 </t>
         </is>
       </c>
